--- a/biology/Médecine/Chloroforme/Chloroforme.xlsx
+++ b/biology/Médecine/Chloroforme/Chloroforme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chloroforme ou trichlorométhane est un composé organochloré de formule brute CHCl3.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Soubeiran (en France), Justus von Liebig (en Allemagne) et Samuel Guthrie (en) (en Amérique) ont découvert en même temps le chloroforme, préparé pour la première fois en 1831. C'est à Édimbourg en 1847 que James Young Simpson utilise pour la première fois le chloroforme pour un accouchement, et le présente aux autres médecins. À l'époque, seul l'éther, qui présente de nombreux inconvénients, était utilisé et de nombreuses opérations se déroulaient sans anesthésie : le chloroforme est alors un grand progrès. Son usage comme anesthésiant décolle lors de la guerre de sécession, pour soigner les blessures sur le champ de bataille. La reine Victoria l'utilise en 1853 pour accoucher, ce qui rassure le grand public concernant l'utilisation du produit[17].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Soubeiran (en France), Justus von Liebig (en Allemagne) et Samuel Guthrie (en) (en Amérique) ont découvert en même temps le chloroforme, préparé pour la première fois en 1831. C'est à Édimbourg en 1847 que James Young Simpson utilise pour la première fois le chloroforme pour un accouchement, et le présente aux autres médecins. À l'époque, seul l'éther, qui présente de nombreux inconvénients, était utilisé et de nombreuses opérations se déroulaient sans anesthésie : le chloroforme est alors un grand progrès. Son usage comme anesthésiant décolle lors de la guerre de sécession, pour soigner les blessures sur le champ de bataille. La reine Victoria l'utilise en 1853 pour accoucher, ce qui rassure le grand public concernant l'utilisation du produit.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Propriétés physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chloroforme est un liquide hautement volatil. Toutefois les vapeurs de chloroforme ne forment pas de mélanges explosifs avec l'air.
 Le chloroforme est un excellent solvant pour de nombreux matériaux organiques tels que graisses, huiles, résines et cires. Il est complètement miscible avec de nombreux solvants organiques et dissout le diiode et le soufre.
@@ -578,7 +594,9 @@
           <t>Production et synthèse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La production de chloroforme est liée à celle d'autres composés organochlorés. En effet, le chloroforme est produit par chlorations successives du méthane ou de l'éthanol.
 Un autre procédé utilise le méthanol comme réactif au lieu du méthane. Il s'agit d'un mélange de chloration/hydrochloration qui permet d'éviter la séparation de l'acide chlorhydrique du méthane lors du recyclage du réactif non utilisé.
@@ -615,7 +633,9 @@
           <t>Sécurité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours d'un stockage prolongé, en présence de dioxygène et sous l'action de la lumière, le chloroforme a tendance à se décomposer en donnant du chlorure d'hydrogène, du dichlore et de l'oxychlorure de carbone (phosgène) qui est un produit extrêmement toxique.
 Absorbé ou inhalé à forte concentration, il peut conduire à un coma, voire entraîner des troubles respiratoires et cardiaques qui peuvent s'avérer mortels. Son utilisation en anesthésie a été abandonnée.
@@ -647,10 +667,12 @@
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans diverses œuvres de fiction, le chloroforme est souvent employé par des criminels pour endormir leurs victimes. Une telle utilisation n'est pas crédible. En premier lieu parce que le chloroforme met plusieurs minutes, et non quelques secondes, avant de faire effet, ce qui laisse théoriquement le temps à la personne agressée de se débattre ou d'appeler à l'aide[18]. En outre, son effet n'est pas durable. Les anesthésistes qui l'utilisaient devaient régulièrement renouveler la dose pour maintenir leur patient inconscient.
-Les rumeurs faisant état de malfaiteurs endormant leurs victimes avec du chloroforme caché dans un flacon de parfum dont ils aspergeraient leurs cibles n'ont pas plus de crédit. Le chloroforme est un gaz beaucoup trop volatil pour rester concentré dans l'air au point de faire perdre connaissance à quelqu'un[19].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans diverses œuvres de fiction, le chloroforme est souvent employé par des criminels pour endormir leurs victimes. Une telle utilisation n'est pas crédible. En premier lieu parce que le chloroforme met plusieurs minutes, et non quelques secondes, avant de faire effet, ce qui laisse théoriquement le temps à la personne agressée de se débattre ou d'appeler à l'aide. En outre, son effet n'est pas durable. Les anesthésistes qui l'utilisaient devaient régulièrement renouveler la dose pour maintenir leur patient inconscient.
+Les rumeurs faisant état de malfaiteurs endormant leurs victimes avec du chloroforme caché dans un flacon de parfum dont ils aspergeraient leurs cibles n'ont pas plus de crédit. Le chloroforme est un gaz beaucoup trop volatil pour rester concentré dans l'air au point de faire perdre connaissance à quelqu'un.
 </t>
         </is>
       </c>
